--- a/v3/files/CSV_data/Data.xlsx
+++ b/v3/files/CSV_data/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hunte\GITHUB\BugDrug\CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hunte\GITHUB\BugDrug\v3\files\CSV_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EFB9B8-B7E1-4B1A-9937-17F1A695B00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA57B21-978E-437A-8C4D-AE4EDBA8BC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26595" yWindow="4470" windowWidth="26160" windowHeight="11295" activeTab="1" xr2:uid="{7FA8651E-4944-489B-A2A3-D1AAB260042C}"/>
+    <workbookView xWindow="-26475" yWindow="5520" windowWidth="26160" windowHeight="11295" activeTab="1" xr2:uid="{7FA8651E-4944-489B-A2A3-D1AAB260042C}"/>
   </bookViews>
   <sheets>
     <sheet name="syndromes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="56">
   <si>
     <t>Bug-Syndrome</t>
   </si>
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,12 +1208,7 @@
       <c r="B7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="4"/>
       <c r="G7" s="2"/>
       <c r="H7" s="4" t="s">
@@ -1242,12 +1237,8 @@
       <c r="B8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="5"/>
       <c r="F8" s="1"/>
       <c r="G8" s="3"/>
@@ -1484,31 +1475,74 @@
       <c r="A15" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="4"/>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" t="s">
+        <v>54</v>
+      </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="4"/>
+      <c r="K15" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="M15" s="2"/>
+      <c r="N15" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="J16" s="10"/>
-      <c r="K16" s="11"/>
+      <c r="K16" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="L16" s="9"/>
       <c r="M16" s="10"/>
-      <c r="N16" s="9"/>
+      <c r="N16" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
     </row>

--- a/v3/files/CSV_data/Data.xlsx
+++ b/v3/files/CSV_data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hunte\GITHUB\BugDrug\v3\files\CSV_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA57B21-978E-437A-8C4D-AE4EDBA8BC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3B06A2-09A8-4195-A71B-F062442D8783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26475" yWindow="5520" windowWidth="26160" windowHeight="11295" activeTab="1" xr2:uid="{7FA8651E-4944-489B-A2A3-D1AAB260042C}"/>
+    <workbookView xWindow="-26055" yWindow="5055" windowWidth="26160" windowHeight="11295" activeTab="1" xr2:uid="{7FA8651E-4944-489B-A2A3-D1AAB260042C}"/>
   </bookViews>
   <sheets>
     <sheet name="syndromes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="63">
   <si>
     <t>Bug-Syndrome</t>
   </si>
@@ -205,6 +205,27 @@
   </si>
   <si>
     <t>some</t>
+  </si>
+  <si>
+    <t>ATM</t>
+  </si>
+  <si>
+    <t>Aminogly</t>
+  </si>
+  <si>
+    <t>TMPSMX</t>
+  </si>
+  <si>
+    <t>Quino</t>
+  </si>
+  <si>
+    <t>NIT</t>
+  </si>
+  <si>
+    <t>FOF</t>
+  </si>
+  <si>
+    <t>AZM</t>
   </si>
 </sst>
 </file>
@@ -220,7 +241,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +251,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -308,6 +335,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1056,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C7A179-6A60-4619-8D55-18B953DE6A74}">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1550,13 +1578,30 @@
       <c r="A17" t="s">
         <v>47</v>
       </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="4"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="4"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="4"/>
+      <c r="G17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="M17" s="2"/>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
       <c r="P17" t="s">
         <v>52</v>
       </c>
@@ -1566,40 +1611,84 @@
         <v>48</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="5"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="5"/>
+      <c r="G18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="M18" s="3"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
+      <c r="O18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="7"/>
+      <c r="B19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
+      <c r="O19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1642,6 +1731,9 @@
       <c r="P21" s="6"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="3"/>
@@ -1659,6 +1751,9 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="4"/>
       <c r="G23" s="2"/>
@@ -1668,6 +1763,9 @@
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="3"/>
@@ -1685,6 +1783,9 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="4"/>
       <c r="G25" s="2"/>
@@ -1694,6 +1795,9 @@
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="3"/>
@@ -1711,6 +1815,9 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="4"/>
       <c r="G27" s="2"/>
@@ -1719,6 +1826,26 @@
       <c r="K27" s="4"/>
       <c r="M27" s="2"/>
     </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/v3/files/CSV_data/Data.xlsx
+++ b/v3/files/CSV_data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hunte\GITHUB\BugDrug\v3\files\CSV_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3B06A2-09A8-4195-A71B-F062442D8783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D57E83B-58E3-421C-A49C-AE1FE9332487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26055" yWindow="5055" windowWidth="26160" windowHeight="11295" activeTab="1" xr2:uid="{7FA8651E-4944-489B-A2A3-D1AAB260042C}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="26160" windowHeight="11295" activeTab="1" xr2:uid="{7FA8651E-4944-489B-A2A3-D1AAB260042C}"/>
   </bookViews>
   <sheets>
     <sheet name="syndromes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="63">
   <si>
     <t>Bug-Syndrome</t>
   </si>
@@ -322,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -336,6 +336,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1086,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C7A179-6A60-4619-8D55-18B953DE6A74}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1578,8 +1579,8 @@
       <c r="A17" t="s">
         <v>47</v>
       </c>
-      <c r="C17" t="s">
-        <v>54</v>
+      <c r="B17" t="s">
+        <v>55</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="4"/>
@@ -1610,15 +1611,15 @@
       <c r="A18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="3"/>
       <c r="E18" s="5"/>
       <c r="F18" s="1"/>
       <c r="G18" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>52</v>
@@ -1636,7 +1637,7 @@
       <c r="M18" s="3"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>55</v>
@@ -1680,14 +1681,16 @@
         <v>55</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="N19" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="O19" s="6" t="s">
         <v>53</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">

--- a/v3/files/CSV_data/Data.xlsx
+++ b/v3/files/CSV_data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hunte\GITHUB\BugDrug\v3\files\CSV_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D57E83B-58E3-421C-A49C-AE1FE9332487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D669547B-8005-47EA-B3CA-B95117BAAECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="26160" windowHeight="11295" activeTab="1" xr2:uid="{7FA8651E-4944-489B-A2A3-D1AAB260042C}"/>
+    <workbookView xWindow="-28335" yWindow="3510" windowWidth="26160" windowHeight="11295" activeTab="1" xr2:uid="{7FA8651E-4944-489B-A2A3-D1AAB260042C}"/>
   </bookViews>
   <sheets>
     <sheet name="syndromes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="64">
   <si>
     <t>Bug-Syndrome</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>AZM</t>
+  </si>
+  <si>
+    <t>note</t>
   </si>
 </sst>
 </file>
@@ -322,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -337,6 +340,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1088,7 +1093,8 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1677,12 +1683,8 @@
       <c r="K19" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L19" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="7"/>
       <c r="N19" s="13" t="s">
         <v>55</v>
       </c>
@@ -1737,9 +1739,15 @@
       <c r="A22" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="3"/>
+      <c r="B22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="E22" s="5"/>
       <c r="F22" s="1"/>
       <c r="G22" s="3"/>
@@ -1757,13 +1765,40 @@
       <c r="A23" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="4"/>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" t="s">
+        <v>55</v>
+      </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="4"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="4"/>
-      <c r="M23" s="2"/>
+      <c r="H23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23" t="s">
+        <v>63</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -1782,12 +1817,14 @@
       <c r="L24" s="1"/>
       <c r="M24" s="3"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+      <c r="O24" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="4"/>
@@ -1796,10 +1833,13 @@
       <c r="J25" s="2"/>
       <c r="K25" s="4"/>
       <c r="M25" s="2"/>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1821,30 +1861,61 @@
       <c r="A27" t="s">
         <v>60</v>
       </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>55</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="4"/>
-      <c r="J27" s="2"/>
+      <c r="J27" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="K27" s="4"/>
-      <c r="M27" s="2"/>
+      <c r="L27" t="s">
+        <v>52</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="H28" s="5"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="3"/>
+      <c r="J28" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="K28" s="5"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="3"/>
+      <c r="L28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>

--- a/v3/files/CSV_data/Data.xlsx
+++ b/v3/files/CSV_data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hunte\GITHUB\BugDrug\v3\files\CSV_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D669547B-8005-47EA-B3CA-B95117BAAECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB38C95-4540-4652-881E-B109327FF74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28335" yWindow="3510" windowWidth="26160" windowHeight="11295" activeTab="1" xr2:uid="{7FA8651E-4944-489B-A2A3-D1AAB260042C}"/>
+    <workbookView xWindow="-27990" yWindow="3855" windowWidth="26160" windowHeight="11295" activeTab="1" xr2:uid="{7FA8651E-4944-489B-A2A3-D1AAB260042C}"/>
   </bookViews>
   <sheets>
     <sheet name="syndromes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="64">
   <si>
     <t>Bug-Syndrome</t>
   </si>
@@ -341,7 +341,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1093,8 +1093,8 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1826,13 +1826,32 @@
       <c r="A25" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="4"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="4"/>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="J25" s="2"/>
-      <c r="K25" s="4"/>
+      <c r="K25" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="M25" s="2"/>
+      <c r="N25" s="15" t="s">
+        <v>55</v>
+      </c>
       <c r="O25" t="s">
         <v>52</v>
       </c>
@@ -1841,15 +1860,27 @@
       <c r="A26" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E26" s="5"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="3"/>
+      <c r="G26" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="K26" s="5"/>
       <c r="L26" s="1"/>
       <c r="M26" s="3"/>
@@ -1868,7 +1899,7 @@
       <c r="E27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" t="s">
         <v>55</v>
       </c>
       <c r="G27" s="2"/>

--- a/v3/files/CSV_data/Data.xlsx
+++ b/v3/files/CSV_data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hunte\GITHUB\BugDrug\v3\files\CSV_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB38C95-4540-4652-881E-B109327FF74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBE666D-D0B8-46C6-8827-3B1C375F1DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27990" yWindow="3855" windowWidth="26160" windowHeight="11295" activeTab="1" xr2:uid="{7FA8651E-4944-489B-A2A3-D1AAB260042C}"/>
+    <workbookView xWindow="2175" yWindow="3690" windowWidth="26160" windowHeight="11295" activeTab="1" xr2:uid="{7FA8651E-4944-489B-A2A3-D1AAB260042C}"/>
   </bookViews>
   <sheets>
     <sheet name="syndromes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="64">
   <si>
     <t>Bug-Syndrome</t>
   </si>
@@ -1093,8 +1093,8 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1162,10 +1162,18 @@
       <c r="E2" s="5"/>
       <c r="F2" s="1"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="L2" s="1"/>
       <c r="M2" s="3"/>
       <c r="N2" s="1"/>
@@ -1174,33 +1182,65 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="4"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="4"/>
-      <c r="M3" s="2"/>
+      <c r="H3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="3"/>
       <c r="E4" s="5"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="1"/>
+      <c r="G4" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
@@ -1208,31 +1248,71 @@
       <c r="A5" t="s">
         <v>37</v>
       </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="4"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="4"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="4"/>
-      <c r="M5" s="2"/>
+      <c r="H5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
+      <c r="B6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="E6" s="11"/>
       <c r="F6" s="9"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="9"/>
+      <c r="H6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
     </row>
@@ -1711,7 +1791,9 @@
       <c r="K20" s="5"/>
       <c r="L20" s="1"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="1"/>
+      <c r="N20" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
@@ -1725,13 +1807,23 @@
       <c r="E21" s="8"/>
       <c r="F21" s="6"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="8"/>
+      <c r="H21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="L21" s="6"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="6"/>
+      <c r="N21" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
     </row>
